--- a/output/instance_SMALL_scenario_2/dual_variables_iteration7.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration7.xlsx
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>4.177840256322694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -552,15 +552,15 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.450244719321548</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>0.0341205504697939</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5318885844808547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1525240072649578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -749,10 +749,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>0.06836140242543505</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.9640031548732854</v>
       </c>
     </row>
     <row r="41">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>1.099235638822169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>0.3353594111279611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1.013194205666437</v>
       </c>
     </row>
     <row r="62">
@@ -991,17 +991,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1095256.932433507</v>
+        <v>8263140.549510287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2353993.251294869</v>
+        <v>8152040.169620151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>6227793.953838659</v>
       </c>
     </row>
   </sheetData>

--- a/output/instance_SMALL_scenario_2/dual_variables_iteration7.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration7.xlsx
@@ -552,12 +552,12 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.450244719321548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0341205504697939</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -645,10 +645,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>0.3004191035039643</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.1787469213149195</v>
       </c>
     </row>
     <row r="28">
@@ -749,10 +749,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.06836140242543505</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9640031548732854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>3.090522235796593</v>
       </c>
     </row>
     <row r="51">
@@ -840,12 +840,12 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.2742864330750027</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>0.0518270226347731</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>1.013194205666437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -957,12 +957,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0.2978108300138596</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-0.5771773593421061</v>
       </c>
     </row>
   </sheetData>
@@ -991,17 +991,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8263140.549510287</v>
+        <v>242201.4083119944</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8152040.169620151</v>
+        <v>1403128.754780352</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6227793.953838659</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
